--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/10/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/10/seed2/result_data_KNN.xlsx
@@ -474,7 +474,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.037999999999999</v>
+        <v>5.933</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -726,7 +726,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>10.034</v>
+        <v>9.379000000000001</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.666</v>
+        <v>7.886</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -774,7 +774,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-6.774000000000001</v>
+        <v>-6.968999999999999</v>
       </c>
     </row>
     <row r="25">
@@ -782,7 +782,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.999999999999999</v>
+        <v>5.392999999999999</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -830,7 +830,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.050000000000001</v>
+        <v>-8.235999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -942,7 +942,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.758000000000001</v>
+        <v>-7.540999999999999</v>
       </c>
     </row>
     <row r="37">
@@ -1068,7 +1068,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.281999999999999</v>
+        <v>-7.425000000000002</v>
       </c>
     </row>
     <row r="46">
@@ -1110,7 +1110,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.608</v>
+        <v>-7.265000000000001</v>
       </c>
     </row>
     <row r="49">
@@ -1124,7 +1124,7 @@
         <v>-12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>-8.524000000000001</v>
+        <v>-8.322999999999999</v>
       </c>
     </row>
     <row r="50">
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-8.234</v>
+        <v>-8.080000000000002</v>
       </c>
     </row>
     <row r="53">
@@ -1174,13 +1174,13 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>6.23</v>
+        <v>5.706</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-8.602</v>
+        <v>-8.343999999999999</v>
       </c>
     </row>
     <row r="54">
@@ -1194,7 +1194,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.168000000000001</v>
       </c>
     </row>
     <row r="55">
@@ -1230,7 +1230,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.880000000000001</v>
+        <v>5.034000000000001</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1258,7 +1258,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>5.452</v>
+        <v>4.790000000000001</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.75</v>
+        <v>5.724</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1418,7 +1418,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-6.843999999999999</v>
+        <v>-7.026999999999999</v>
       </c>
     </row>
     <row r="71">
@@ -1538,7 +1538,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>6.394</v>
+        <v>5.889</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1594,7 +1594,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.109999999999999</v>
+        <v>5.473999999999999</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1642,7 +1642,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.302</v>
+        <v>-8.252000000000001</v>
       </c>
     </row>
     <row r="87">
@@ -1656,7 +1656,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-8.602</v>
+        <v>-8.233999999999998</v>
       </c>
     </row>
     <row r="88">
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>5.91</v>
+        <v>5.369</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1852,7 +1852,7 @@
         <v>-15.77</v>
       </c>
       <c r="D101" t="n">
-        <v>-8.018000000000001</v>
+        <v>-7.806999999999999</v>
       </c>
     </row>
     <row r="102">
